--- a/data_preparation/meta/mri_dataset_train_applicator_annotation.xlsx
+++ b/data_preparation/meta/mri_dataset_train_applicator_annotation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="350">
   <si>
     <t xml:space="preserve">root_path</t>
   </si>
@@ -67,381 +67,327 @@
     <t xml:space="preserve">0.68181818723678|0.68181818723678|3.0</t>
   </si>
   <si>
+    <t xml:space="preserve">bladder|bowel|rectum|sigmoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1139286896_3931511924/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568395579.93.91.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1139286896_3931511924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568395579.93.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bladder|rectum|sigmoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1159711074_3809888632/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568050930.156.85.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1159711074_3809888632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568050930.156.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.52083331346511|0.52083331346511|3.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">bladder|bowel|gtv-b|hr-ctv|ir-ctv|rectum|sigmoid</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1124244365_3045165560/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568039767.453.93.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1124244365_3045165560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568039767.453.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5|0.5|3.0</t>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/126484256_4268581668/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568039389.281.53.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126484256_4268581668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568039389.281.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/137782732_3464783626/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568388382.343.87.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137782732_3464783626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568388382.343.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hr-ctv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maybe not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/137782732_3464783626/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568388013.250.56.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568388013.250.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anal canal|bladder|bowel|gtv-b|hr-ctv|ir-ctv|marker|rectum|sigmoid|urethra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1397457455_855871273/1.2.826.0.1.3680043.2.135.737157.54716028.7.1570097609.890.54.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1397457455_855871273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1570097609.890.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75|0.75|4.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anus|bladder|bowel|ctv|rectum|sigmoid|urethra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/143617278_3168196814/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568382515.937.18.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143617278_3168196814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568382515.937.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bladder|bowel|hr-ctv|ir-ctv|rectum|sigmoid|urethra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1587335508_2996137814/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568038872.390.87.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1587335508_2996137814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568038872.390.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bladder|bowel|hr-ctv|ir-ctv|rectum|sigmoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1587335508_2996137814/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568961918.62.61.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568961918.62.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1650313577_3459676685/1.2.826.0.1.3680043.2.135.737157.54716028.7.1569368733.796.40.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1650313577_3459676685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1569368733.796.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bladder|gtv-b|hr-ctv|ir-ctv|rectum|sigmoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1650313577_3459676685/1.2.826.0.1.3680043.2.135.737157.54716028.7.1559663683.375.4.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1559663683.375.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1657182019_587983742/1.2.826.0.1.3680043.2.135.737157.54716028.7.1559714821.171.98.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1657182019_587983742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1559714821.171.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/169752481_544825051/1.2.826.0.1.3680043.2.135.737157.54716028.7.1559705971.890.69.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169752481_544825051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1559705971.890.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1743804716_2329179886/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568385459.250.92.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1743804716_2329179886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568385459.250.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bladder|bowel|hr-ctv|pelotte|rectum|sigmoid|urethra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1743804716_2329179886/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568386520.31.13.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568386520.31.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bladder|bowel|hr-ctv|ir-ctv|pelotte|rectum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1743804716_2329179886/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568385087.906.79.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568385087.906.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anal canal|bladder|bowel|hr-ctv|ir-ctv|rectum|sigmoid|urethra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1753681845_3020742114/1.2.826.0.1.3680043.2.135.737157.54716028.7.1559577419.656.82.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1753681845_3020742114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1559577419.656.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1753681845_3020742114/1.2.826.0.1.3680043.2.135.737157.54716028.7.1559579058.437.90.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1559579058.437.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1849603028_2419247514/1.2.826.0.1.3680043.2.135.737157.54716028.7.1559760818.671.69.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1849603028_2419247514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1559760818.671.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1849603028_2419247514/1.2.826.0.1.3680043.2.135.737157.54716028.7.1559763251.406.26.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1559763251.406.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1852473276_801418570/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568873433.109.70.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1852473276_801418570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568873433.109.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/2023278146_2906864412/1.2.826.0.1.3680043.2.135.737157.54716028.7.1570619191.921.12.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023278146_2906864412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1570619191.921.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hr-ctv|ir-ctv|pelotte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/2049525685_4159310790/1.2.826.0.1.3680043.2.135.737157.54716028.7.1559770951.218.33.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2049525685_4159310790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1559770951.218.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/2049525685_4159310790/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568872189.968.56.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568872189.968.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/2063123613_2508295280/1.2.826.0.1.3680043.2.135.737157.54716028.7.1559743855.46.74.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2063123613_2508295280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1559743855.46.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/2260059933_1969792166/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568850952.843.76.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2260059933_1969792166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568850952.843.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/2260059933_1969792166/1.2.826.0.1.3680043.2.135.737157.54716028.7.1559731044.718.12.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1559731044.718.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/2313820002_228033758/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568839113.546.43.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2313820002_228033758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568839113.546.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/2313820002_228033758/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568838107.671.33.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568838107.671.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/2314573991_1935594109/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568070308.406.58.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2314573991_1935594109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568070308.406.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/2430434613_1949718462/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568402325.765.60.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2430434613_1949718462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568402325.765.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/2475058207_640932983/1.2.826.0.1.3680043.2.135.737157.54716028.7.1567263811.718.95.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2475058207_640932983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1567263811.718.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/2489710482_865480046/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568408085.953.86.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2489710482_865480046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568408085.953.86</t>
   </si>
   <si>
     <t xml:space="preserve">gtv</t>
   </si>
   <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1139286896_3931511924/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568395579.93.91.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1139286896_3931511924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568395579.93.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bladder|rectum|sigmoid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1159711074_3809888632/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568050930.156.85.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1159711074_3809888632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568050930.156.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.52083331346511|0.52083331346511|3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">same image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1159711074_3809888632/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568963494.375.39.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568963494.375.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bladder|bowel|rectum|sigmoid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/126484256_4268581668/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568039389.281.53.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126484256_4268581668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568039389.281.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/126484256_4268581668/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568962156.156.84.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568962156.156.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/137782732_3464783626/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568388382.343.87.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137782732_3464783626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568388382.343.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hr-ctv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maybe not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/137782732_3464783626/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568388013.250.56.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568388013.250.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anal canal|bladder|bowel|gtv-b|hr-ctv|ir-ctv|marker|rectum|sigmoid|urethra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1397457455_855871273/1.2.826.0.1.3680043.2.135.737157.54716028.7.1567326409.406.25.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1397457455_855871273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1567326409.406.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75|0.75|4.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blaas|bowel|ctv|rectum|sigmoid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1397457455_855871273/1.2.826.0.1.3680043.2.135.737157.54716028.7.1570097609.890.54.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1570097609.890.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anus|blaas|bowel|ctv|rectum|sigmoid|urethra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/143617278_3168196814/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568382515.937.18.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143617278_3168196814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568382515.937.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bladder|bowel|hr-ctv|ir-ctv|rectum|sigmoid|urethra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1587335508_2996137814/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568038872.390.87.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1587335508_2996137814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568038872.390.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bladder|bowel|hr-ctv|ir-ctv|rectum|sigmoid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1587335508_2996137814/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568961918.62.61.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568961918.62.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1650313577_3459676685/1.2.826.0.1.3680043.2.135.737157.54716028.7.1559661752.593.87.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1650313577_3459676685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1559661752.593.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1650313577_3459676685/1.2.826.0.1.3680043.2.135.737157.54716028.7.1569368733.796.40.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1569368733.796.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bladder|gtv-b|hr-ctv|ir-ctv|rectum|sigmoid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1650313577_3459676685/1.2.826.0.1.3680043.2.135.737157.54716028.7.1559663683.375.4.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1559663683.375.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1657182019_587983742/1.2.826.0.1.3680043.2.135.737157.54716028.7.1559714821.171.98.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1657182019_587983742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1559714821.171.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/169752481_544825051/1.2.826.0.1.3680043.2.135.737157.54716028.7.1559705971.890.69.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169752481_544825051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1559705971.890.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1743804716_2329179886/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568385459.250.92.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1743804716_2329179886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568385459.250.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bladder|bowel|hr-ctv|pelotte|rectum|sigmoid|urethra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1743804716_2329179886/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568386520.31.13.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568386520.31.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bladder|bowel|hr-ctv|ir-ctv|pelotte|rectum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1743804716_2329179886/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568385087.906.79.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568385087.906.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anal canal|bladder|bowel|hr-ctv|ir-ctv|rectum|sigmoid|urethra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1753681845_3020742114/1.2.826.0.1.3680043.2.135.737157.54716028.7.1559577419.656.82.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1753681845_3020742114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1559577419.656.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1753681845_3020742114/1.2.826.0.1.3680043.2.135.737157.54716028.7.1570439947.968.21.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1570439947.968.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1753681845_3020742114/1.2.826.0.1.3680043.2.135.737157.54716028.7.1559579058.437.90.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1559579058.437.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1849603028_2419247514/1.2.826.0.1.3680043.2.135.737157.54716028.7.1559760818.671.69.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1849603028_2419247514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1559760818.671.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1849603028_2419247514/1.2.826.0.1.3680043.2.135.737157.54716028.7.1559763251.406.26.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1559763251.406.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/1852473276_801418570/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568873433.109.70.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1852473276_801418570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568873433.109.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/2023278146_2906864412/1.2.826.0.1.3680043.2.135.737157.54716028.7.1570619191.921.12.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023278146_2906864412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1570619191.921.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hr-ctv|ir-ctv|pelotte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/2049525685_4159310790/1.2.826.0.1.3680043.2.135.737157.54716028.7.1559770951.218.33.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2049525685_4159310790</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1559770951.218.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/2049525685_4159310790/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568872189.968.56.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568872189.968.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/2063123613_2508295280/1.2.826.0.1.3680043.2.135.737157.54716028.7.1559743855.46.74.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2063123613_2508295280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1559743855.46.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/2063123613_2508295280/1.2.826.0.1.3680043.2.135.737157.54716028.7.1569377433.828.74.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1569377433.828.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/2260059933_1969792166/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568850952.843.76.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2260059933_1969792166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568850952.843.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/2260059933_1969792166/1.2.826.0.1.3680043.2.135.737157.54716028.7.1559731044.718.12.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1559731044.718.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/2313820002_228033758/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568839113.546.43.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2313820002_228033758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568839113.546.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/2313820002_228033758/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568838107.671.33.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568838107.671.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/2314573991_1935594109/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568070308.406.58.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2314573991_1935594109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568070308.406.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/2430434613_1949718462/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568402325.765.60.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2430434613_1949718462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568402325.765.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/2475058207_640932983/1.2.826.0.1.3680043.2.135.737157.54716028.7.1567263811.718.95.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2475058207_640932983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1567263811.718.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/2489710482_865480046/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568408085.953.86.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2489710482_865480046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568408085.953.86</t>
-  </si>
-  <si>
     <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/2489710482_865480046/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568406347.484.95.json</t>
   </si>
   <si>
@@ -460,7 +406,7 @@
     <t xml:space="preserve">0.46875|0.46875|4.0</t>
   </si>
   <si>
-    <t xml:space="preserve">blaas|bowel|ptv|rectum|sigmoid|urethra</t>
+    <t xml:space="preserve">bladder|bowel|ptv|rectum|sigmoid|urethra</t>
   </si>
   <si>
     <t xml:space="preserve">bad quality</t>
@@ -640,7 +586,7 @@
     <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1558565709.109.70</t>
   </si>
   <si>
-    <t xml:space="preserve">blaas|pelotte|ptv</t>
+    <t xml:space="preserve">bladder|pelotte|ptv</t>
   </si>
   <si>
     <t xml:space="preserve">different FOV</t>
@@ -742,24 +688,12 @@
     <t xml:space="preserve">anal canal|bladder|bowel|gtv-b|hr-ctv|ir-ctv|marker 12u|marker 4u|marker 6u|rectum|sigmoid|urethra</t>
   </si>
   <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/3450012419_1594035157/1.2.826.0.1.3680043.2.135.737157.54716028.7.1569559325.234.25.json</t>
+    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/3450012419_1594035157/1.2.826.0.1.3680043.2.135.737157.54716028.7.1569855465.421.99.json</t>
   </si>
   <si>
     <t xml:space="preserve">3450012419_1594035157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1569559325.234.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anus|bladder|bowel|hr-ctv|ir-ctv|marker|marker ventraal|rectum|sigmoid|sigmoid_extra_axi|sigmoid_totaal|urethra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">same image, bad quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/3450012419_1594035157/1.2.826.0.1.3680043.2.135.737157.54716028.7.1569855465.421.99.json</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1569855465.421.99</t>
   </si>
   <si>
@@ -877,12 +811,6 @@
     <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1569375564.203.39</t>
   </si>
   <si>
-    <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/3781647010_53569320/1.2.826.0.1.3680043.2.135.737157.54716028.7.1559710807.343.82.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1559710807.343.82</t>
-  </si>
-  <si>
     <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/380144308_59299640/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568733785.984.2.json</t>
   </si>
   <si>
@@ -931,7 +859,7 @@
     <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1568038559.703.63</t>
   </si>
   <si>
-    <t xml:space="preserve">blaas|rectum</t>
+    <t xml:space="preserve">bladder|rectum</t>
   </si>
   <si>
     <t xml:space="preserve">/export/scratch2/data/grewal/Data/Projects_JPG_data/MO_DIR/MR_sag/MODIR_data_train_split/3992519549_3885072258/1.2.826.0.1.3680043.2.135.737157.54716028.7.1568309020.187.8.json</t>
@@ -1142,9 +1070,6 @@
   </si>
   <si>
     <t xml:space="preserve">1.2.826.0.1.3680043.2.135.737157.54716028.7.1567215392.484.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blaas|bowel|hr-ctv|ir-ctv|rectum|sigmoid</t>
   </si>
 </sst>
 </file>
@@ -1241,17 +1166,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J119"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="44:44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J79" activeCellId="0" sqref="J79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="79.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="158.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="55.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="35.2"/>
@@ -1336,16 +1261,16 @@
         <v>19</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>20140124</v>
+        <v>20150112</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="H3" s="0" t="n">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>16</v>
@@ -1356,25 +1281,25 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="E4" s="0" t="n">
-        <v>20150112</v>
+        <v>20190514</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>16</v>
@@ -1394,22 +1319,19 @@
         <v>28</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>20190514</v>
+        <v>20181126</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1417,31 +1339,31 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="n">
+        <v>20180307</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>20190514</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="0" t="s">
+      <c r="H6" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1452,28 +1374,28 @@
         <v>34</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="n">
+        <v>20180327</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>20181126</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="0" t="s">
+      <c r="H7" s="0" t="n">
+        <v>202</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>217</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1484,28 +1406,25 @@
         <v>37</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>20181126</v>
+        <v>20110628</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1513,31 +1432,28 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>20180307</v>
+        <v>20170519</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1545,31 +1461,28 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>20180327</v>
+        <v>20181129</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1577,31 +1490,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="D11" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>20110628</v>
+        <v>20181203</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1612,28 +1522,25 @@
         <v>52</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>20110628</v>
+        <v>20180914</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1641,25 +1548,25 @@
         <v>10</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>57</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>20170519</v>
+        <v>20180918</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>16</v>
@@ -1670,25 +1577,25 @@
         <v>10</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="D14" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="E14" s="0" t="n">
-        <v>20181129</v>
+        <v>20190109</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>16</v>
@@ -1699,25 +1606,25 @@
         <v>10</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>64</v>
-      </c>
       <c r="E15" s="0" t="n">
-        <v>20181203</v>
+        <v>20181205</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>16</v>
@@ -1728,31 +1635,28 @@
         <v>10</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="D16" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="E16" s="0" t="n">
+        <v>20170809</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>20180914</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="H16" s="0" t="n">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1763,28 +1667,25 @@
         <v>68</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>69</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>20180914</v>
+        <v>20170831</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>70</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1795,22 +1696,22 @@
         <v>71</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>72</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>20180918</v>
+        <v>20170915</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>16</v>
@@ -1821,25 +1722,25 @@
         <v>10</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>20190109</v>
+        <v>20171128</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>16</v>
@@ -1850,25 +1751,25 @@
         <v>10</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>78</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>20181205</v>
+        <v>20171204</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>16</v>
@@ -1888,16 +1789,16 @@
         <v>81</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>20170809</v>
+        <v>20190403</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>16</v>
@@ -1908,25 +1809,25 @@
         <v>10</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>80</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>20170831</v>
+        <v>20190411</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>16</v>
@@ -1937,25 +1838,25 @@
         <v>10</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>87</v>
-      </c>
       <c r="E23" s="0" t="n">
-        <v>20170915</v>
+        <v>20190605</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>16</v>
@@ -1966,25 +1867,25 @@
         <v>10</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="E24" s="0" t="n">
+        <v>20180104</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>20171128</v>
-      </c>
-      <c r="F24" s="0" t="s">
+      <c r="H24" s="0" t="n">
         <v>29</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>142</v>
       </c>
       <c r="I24" s="0" t="s">
         <v>16</v>
@@ -1995,31 +1896,28 @@
         <v>10</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>93</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>20171204</v>
+        <v>20190313</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="I25" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2030,28 +1928,25 @@
         <v>94</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>95</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>20171204</v>
+        <v>20190320</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>122</v>
+        <v>282</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2068,16 +1963,16 @@
         <v>98</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>20190403</v>
+        <v>20190226</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>16</v>
@@ -2091,22 +1986,22 @@
         <v>99</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>20190411</v>
+        <v>20190116</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="I28" s="0" t="s">
         <v>16</v>
@@ -2117,25 +2012,25 @@
         <v>10</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>103</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>20190605</v>
+        <v>20190122</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>231</v>
+        <v>124</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>16</v>
@@ -2155,16 +2050,16 @@
         <v>106</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>20180104</v>
+        <v>20181016</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>29</v>
+        <v>287</v>
       </c>
       <c r="I30" s="0" t="s">
         <v>16</v>
@@ -2175,25 +2070,25 @@
         <v>10</v>
       </c>
       <c r="B31" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>110</v>
-      </c>
       <c r="E31" s="0" t="n">
-        <v>20190313</v>
+        <v>20181024</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>16</v>
@@ -2204,25 +2099,25 @@
         <v>10</v>
       </c>
       <c r="B32" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>112</v>
-      </c>
       <c r="E32" s="0" t="n">
-        <v>20190320</v>
+        <v>20141125</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>282</v>
+        <v>129</v>
       </c>
       <c r="I32" s="0" t="s">
         <v>16</v>
@@ -2233,31 +2128,28 @@
         <v>10</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="D33" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>115</v>
-      </c>
       <c r="E33" s="0" t="n">
-        <v>20190226</v>
+        <v>20190115</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="J33" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2265,31 +2157,28 @@
         <v>10</v>
       </c>
       <c r="B34" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>117</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>20190226</v>
+        <v>20150324</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="J34" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2306,16 +2195,16 @@
         <v>120</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>20190116</v>
+        <v>20181231</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>16</v>
@@ -2326,25 +2215,25 @@
         <v>10</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>119</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>20190122</v>
+        <v>20190114</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>16</v>
@@ -2355,28 +2244,31 @@
         <v>10</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>20181016</v>
+        <v>20110617</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>287</v>
+        <v>45</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>16</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2384,25 +2276,25 @@
         <v>10</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>20181024</v>
+        <v>20170517</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="I38" s="0" t="s">
         <v>16</v>
@@ -2413,25 +2305,25 @@
         <v>10</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>20141125</v>
+        <v>20180509</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>16</v>
@@ -2442,25 +2334,25 @@
         <v>10</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>20190115</v>
+        <v>20180618</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>16</v>
@@ -2471,25 +2363,25 @@
         <v>10</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>20150324</v>
+        <v>20190219</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="I41" s="0" t="s">
         <v>16</v>
@@ -2500,25 +2392,25 @@
         <v>10</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>20181231</v>
+        <v>20190319</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="I42" s="0" t="s">
         <v>16</v>
@@ -2529,25 +2421,25 @@
         <v>10</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>20190114</v>
+        <v>20190213</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="I43" s="0" t="s">
         <v>16</v>
@@ -2558,31 +2450,28 @@
         <v>10</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>20110617</v>
+        <v>20190220</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="I44" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="J44" s="0" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2590,25 +2479,25 @@
         <v>10</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>20170517</v>
+        <v>20180904</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="I45" s="0" t="s">
         <v>16</v>
@@ -2619,25 +2508,25 @@
         <v>10</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>20180509</v>
+        <v>20180911</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="I46" s="0" t="s">
         <v>16</v>
@@ -2648,25 +2537,25 @@
         <v>10</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>20180618</v>
+        <v>20181227</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="I47" s="0" t="s">
         <v>16</v>
@@ -2677,25 +2566,25 @@
         <v>10</v>
       </c>
       <c r="B48" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="D48" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>20190121</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="H48" s="0" t="n">
         <v>160</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>20190219</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H48" s="0" t="n">
-        <v>155</v>
       </c>
       <c r="I48" s="0" t="s">
         <v>16</v>
@@ -2706,25 +2595,25 @@
         <v>10</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>20190319</v>
+        <v>20120626</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="I49" s="0" t="s">
         <v>16</v>
@@ -2735,25 +2624,25 @@
         <v>10</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>20190213</v>
+        <v>20180212</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I50" s="0" t="s">
         <v>16</v>
@@ -2764,25 +2653,25 @@
         <v>10</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>20190220</v>
+        <v>20190321</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="I51" s="0" t="s">
         <v>16</v>
@@ -2793,25 +2682,25 @@
         <v>10</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>20180904</v>
+        <v>20190327</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="I52" s="0" t="s">
         <v>16</v>
@@ -2822,25 +2711,25 @@
         <v>10</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>20180911</v>
+        <v>20181002</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I53" s="0" t="s">
         <v>16</v>
@@ -2851,25 +2740,25 @@
         <v>10</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>20181227</v>
+        <v>20181009</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="I54" s="0" t="s">
         <v>16</v>
@@ -2880,25 +2769,25 @@
         <v>10</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>20190121</v>
+        <v>20181025</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>160</v>
+        <v>231</v>
       </c>
       <c r="I55" s="0" t="s">
         <v>16</v>
@@ -2909,28 +2798,31 @@
         <v>10</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>20120626</v>
+        <v>20170831</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="I56" s="0" t="s">
         <v>16</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2938,28 +2830,31 @@
         <v>10</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D57" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>20171010</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="0" t="s">
         <v>189</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>20180212</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H57" s="0" t="n">
-        <v>176</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2967,25 +2862,25 @@
         <v>10</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>20190321</v>
+        <v>20190311</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>159</v>
+        <v>283</v>
       </c>
       <c r="I58" s="0" t="s">
         <v>16</v>
@@ -2996,25 +2891,25 @@
         <v>10</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>20190327</v>
+        <v>20190318</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>185</v>
+        <v>246</v>
       </c>
       <c r="I59" s="0" t="s">
         <v>16</v>
@@ -3025,25 +2920,25 @@
         <v>10</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>20181002</v>
+        <v>20170418</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>193</v>
+        <v>53</v>
       </c>
       <c r="I60" s="0" t="s">
         <v>16</v>
@@ -3054,25 +2949,25 @@
         <v>10</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>20181009</v>
+        <v>20171012</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="I61" s="0" t="s">
         <v>16</v>
@@ -3083,25 +2978,25 @@
         <v>10</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>20181025</v>
+        <v>20180904</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>15</v>
+        <v>209</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="I62" s="0" t="s">
         <v>16</v>
@@ -3112,31 +3007,28 @@
         <v>10</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>20170831</v>
+        <v>20190325</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I63" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="J63" s="0" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3144,31 +3036,28 @@
         <v>10</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>20171010</v>
+        <v>20190423</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I64" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="J64" s="0" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3176,28 +3065,31 @@
         <v>10</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>20190311</v>
+        <v>20180618</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>283</v>
+        <v>84</v>
       </c>
       <c r="I65" s="0" t="s">
         <v>16</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3205,25 +3097,25 @@
         <v>10</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>20190318</v>
+        <v>20180710</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>246</v>
+        <v>145</v>
       </c>
       <c r="I66" s="0" t="s">
         <v>16</v>
@@ -3234,25 +3126,25 @@
         <v>10</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>20170418</v>
+        <v>20150216</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="I67" s="0" t="s">
         <v>16</v>
@@ -3263,25 +3155,25 @@
         <v>10</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>20171012</v>
+        <v>20180918</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>223</v>
+        <v>25</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="I68" s="0" t="s">
         <v>16</v>
@@ -3292,25 +3184,25 @@
         <v>10</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>20180904</v>
+        <v>20190117</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>227</v>
+        <v>25</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="I69" s="0" t="s">
         <v>16</v>
@@ -3321,28 +3213,31 @@
         <v>10</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>20190325</v>
+        <v>20190123</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>51</v>
+        <v>220</v>
       </c>
       <c r="I70" s="0" t="s">
         <v>16</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3350,28 +3245,31 @@
         <v>10</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>20190423</v>
+        <v>20180308</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I71" s="0" t="s">
         <v>16</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3379,31 +3277,31 @@
         <v>10</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>235</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>20180618</v>
+        <v>20180403</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="I72" s="0" t="s">
         <v>16</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>43</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3411,25 +3309,25 @@
         <v>10</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>20180710</v>
+        <v>20190405</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="I73" s="0" t="s">
         <v>16</v>
@@ -3440,31 +3338,28 @@
         <v>10</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>20150216</v>
+        <v>20190514</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c r="I74" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="J74" s="0" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3472,31 +3367,28 @@
         <v>10</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>20150216</v>
+        <v>20180202</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="I75" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="J75" s="0" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3504,25 +3396,25 @@
         <v>10</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>20180918</v>
+        <v>20170719</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I76" s="0" t="s">
         <v>16</v>
@@ -3533,25 +3425,25 @@
         <v>10</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>20190117</v>
+        <v>20170808</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>236</v>
+        <v>6</v>
       </c>
       <c r="I77" s="0" t="s">
         <v>16</v>
@@ -3562,31 +3454,28 @@
         <v>10</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>20190123</v>
+        <v>20170822</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="I78" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="J78" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3594,31 +3483,28 @@
         <v>10</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>20180308</v>
+        <v>20181217</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="I79" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="J79" s="0" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3626,31 +3512,28 @@
         <v>10</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>20180403</v>
+        <v>20150106</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>263</v>
+        <v>14</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="I80" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="J80" s="0" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3658,25 +3541,25 @@
         <v>10</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>20190405</v>
+        <v>20141209</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="I81" s="0" t="s">
         <v>16</v>
@@ -3687,25 +3570,25 @@
         <v>10</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>20190514</v>
+        <v>20190225</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>270</v>
+        <v>25</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="I82" s="0" t="s">
         <v>16</v>
@@ -3716,25 +3599,25 @@
         <v>10</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>272</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>20180202</v>
+        <v>20190301</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="I83" s="0" t="s">
         <v>16</v>
@@ -3745,25 +3628,25 @@
         <v>10</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>20170719</v>
+        <v>20110727</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I84" s="0" t="s">
         <v>16</v>
@@ -3774,25 +3657,25 @@
         <v>10</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>20170808</v>
+        <v>20180727</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="I85" s="0" t="s">
         <v>16</v>
@@ -3803,25 +3686,25 @@
         <v>10</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>20170822</v>
+        <v>20170526</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="I86" s="0" t="s">
         <v>16</v>
@@ -3832,31 +3715,28 @@
         <v>10</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>20181217</v>
+        <v>20181022</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="I87" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="J87" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3864,31 +3744,28 @@
         <v>10</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>20181217</v>
+        <v>20181106</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="I88" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="J88" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3896,25 +3773,25 @@
         <v>10</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>20150106</v>
+        <v>20170915</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="I89" s="0" t="s">
         <v>16</v>
@@ -3925,25 +3802,25 @@
         <v>10</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>292</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>20141209</v>
+        <v>20171023</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="I90" s="0" t="s">
         <v>16</v>
@@ -3954,25 +3831,25 @@
         <v>10</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>20190225</v>
+        <v>20180626</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="I91" s="0" t="s">
         <v>16</v>
@@ -3983,25 +3860,25 @@
         <v>10</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>20190301</v>
+        <v>20180702</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>251</v>
+        <v>114</v>
       </c>
       <c r="I92" s="0" t="s">
         <v>16</v>
@@ -4012,25 +3889,25 @@
         <v>10</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>20110727</v>
+        <v>20180515</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>303</v>
+        <v>25</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="I93" s="0" t="s">
         <v>16</v>
@@ -4041,25 +3918,25 @@
         <v>10</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>20180727</v>
+        <v>20190211</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>26</v>
+        <v>258</v>
       </c>
       <c r="I94" s="0" t="s">
         <v>16</v>
@@ -4070,25 +3947,25 @@
         <v>10</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>20170526</v>
+        <v>20190402</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="I95" s="0" t="s">
         <v>16</v>
@@ -4099,25 +3976,25 @@
         <v>10</v>
       </c>
       <c r="B96" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C96" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="C96" s="0" t="s">
-        <v>311</v>
-      </c>
       <c r="D96" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>20181022</v>
+        <v>20190408</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>34</v>
+        <v>222</v>
       </c>
       <c r="I96" s="0" t="s">
         <v>16</v>
@@ -4128,25 +4005,25 @@
         <v>10</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>20181106</v>
+        <v>20181029</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="I97" s="0" t="s">
         <v>16</v>
@@ -4157,25 +4034,25 @@
         <v>10</v>
       </c>
       <c r="B98" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C98" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="C98" s="0" t="s">
-        <v>316</v>
-      </c>
       <c r="D98" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>20170915</v>
+        <v>20181113</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>318</v>
+        <v>164</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="I98" s="0" t="s">
         <v>16</v>
@@ -4189,22 +4066,22 @@
         <v>319</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>20171023</v>
+        <v>20180103</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>321</v>
+        <v>25</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="I99" s="0" t="s">
         <v>16</v>
@@ -4218,22 +4095,22 @@
         <v>322</v>
       </c>
       <c r="C100" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="D100" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="D100" s="0" t="s">
-        <v>324</v>
-      </c>
       <c r="E100" s="0" t="n">
-        <v>20180626</v>
+        <v>20180109</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="I100" s="0" t="s">
         <v>16</v>
@@ -4244,25 +4121,25 @@
         <v>10</v>
       </c>
       <c r="B101" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C101" s="0" t="s">
         <v>325</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>323</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>326</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>20180702</v>
+        <v>20190111</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="I101" s="0" t="s">
         <v>16</v>
@@ -4276,22 +4153,22 @@
         <v>327</v>
       </c>
       <c r="C102" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D102" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="D102" s="0" t="s">
-        <v>329</v>
-      </c>
       <c r="E102" s="0" t="n">
-        <v>20180515</v>
+        <v>20190205</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="I102" s="0" t="s">
         <v>16</v>
@@ -4302,25 +4179,25 @@
         <v>10</v>
       </c>
       <c r="B103" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C103" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="D103" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D103" s="0" t="s">
-        <v>332</v>
-      </c>
       <c r="E103" s="0" t="n">
-        <v>20190211</v>
+        <v>20180927</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="I103" s="0" t="s">
         <v>16</v>
@@ -4331,25 +4208,25 @@
         <v>10</v>
       </c>
       <c r="B104" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="D104" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="C104" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="D104" s="0" t="s">
-        <v>335</v>
-      </c>
       <c r="E104" s="0" t="n">
-        <v>20190402</v>
+        <v>20181002</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="I104" s="0" t="s">
         <v>16</v>
@@ -4360,25 +4237,25 @@
         <v>10</v>
       </c>
       <c r="B105" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D105" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="C105" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="D105" s="0" t="s">
-        <v>337</v>
-      </c>
       <c r="E105" s="0" t="n">
-        <v>20190408</v>
+        <v>20181030</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="I105" s="0" t="s">
         <v>16</v>
@@ -4389,25 +4266,25 @@
         <v>10</v>
       </c>
       <c r="B106" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="C106" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="D106" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="D106" s="0" t="s">
-        <v>340</v>
-      </c>
       <c r="E106" s="0" t="n">
-        <v>20181029</v>
+        <v>20190102</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="I106" s="0" t="s">
         <v>16</v>
@@ -4418,25 +4295,25 @@
         <v>10</v>
       </c>
       <c r="B107" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D107" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="C107" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="D107" s="0" t="s">
-        <v>342</v>
-      </c>
       <c r="E107" s="0" t="n">
-        <v>20181113</v>
+        <v>20190110</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I107" s="0" t="s">
         <v>16</v>
@@ -4447,25 +4324,25 @@
         <v>10</v>
       </c>
       <c r="B108" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C108" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="D108" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="D108" s="0" t="s">
-        <v>345</v>
-      </c>
       <c r="E108" s="0" t="n">
-        <v>20180103</v>
+        <v>20180919</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="I108" s="0" t="s">
         <v>16</v>
@@ -4476,25 +4353,25 @@
         <v>10</v>
       </c>
       <c r="B109" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D109" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="C109" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>347</v>
-      </c>
       <c r="E109" s="0" t="n">
-        <v>20180109</v>
+        <v>20180924</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="I109" s="0" t="s">
         <v>16</v>
@@ -4505,288 +4382,27 @@
         <v>10</v>
       </c>
       <c r="B110" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C110" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="D110" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="D110" s="0" t="s">
-        <v>350</v>
-      </c>
       <c r="E110" s="0" t="n">
-        <v>20190111</v>
+        <v>20110331</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="D111" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="E111" s="0" t="n">
-        <v>20190205</v>
-      </c>
-      <c r="F111" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G111" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H111" s="0" t="n">
-        <v>108</v>
-      </c>
-      <c r="I111" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="D112" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="E112" s="0" t="n">
-        <v>20180927</v>
-      </c>
-      <c r="F112" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G112" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H112" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="I112" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="D113" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="E113" s="0" t="n">
-        <v>20181002</v>
-      </c>
-      <c r="F113" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G113" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H113" s="0" t="n">
-        <v>254</v>
-      </c>
-      <c r="I113" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="D114" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="E114" s="0" t="n">
-        <v>20181030</v>
-      </c>
-      <c r="F114" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G114" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H114" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="I114" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="D115" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="E115" s="0" t="n">
-        <v>20190102</v>
-      </c>
-      <c r="F115" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G115" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H115" s="0" t="n">
-        <v>122</v>
-      </c>
-      <c r="I115" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="D116" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="E116" s="0" t="n">
-        <v>20190110</v>
-      </c>
-      <c r="F116" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G116" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H116" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="I116" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="E117" s="0" t="n">
-        <v>20180919</v>
-      </c>
-      <c r="F117" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G117" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H117" s="0" t="n">
-        <v>164</v>
-      </c>
-      <c r="I117" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="E118" s="0" t="n">
-        <v>20180924</v>
-      </c>
-      <c r="F118" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G118" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H118" s="0" t="n">
-        <v>177</v>
-      </c>
-      <c r="I118" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="E119" s="0" t="n">
-        <v>20110331</v>
-      </c>
-      <c r="F119" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="G119" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="H119" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="I119" s="0" t="s">
         <v>16</v>
       </c>
     </row>
